--- a/predictions/global/GradientBoostingRegressor/Comorbilidades.xlsx
+++ b/predictions/global/GradientBoostingRegressor/Comorbilidades.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1647362719327807</v>
+        <v>0.1647362719327806</v>
       </c>
       <c r="C3" t="n">
         <v>0.9967802254222674</v>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2192987281846224</v>
+        <v>0.2192987281846225</v>
       </c>
       <c r="C4" t="n">
         <v>0.9957811801114811</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3638702225807679</v>
+        <v>0.363870222580768</v>
       </c>
       <c r="C5" t="n">
         <v>0.9928249773934597</v>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3955935532374566</v>
+        <v>0.3955935532374564</v>
       </c>
       <c r="C6" t="n">
         <v>0.9883803810587179</v>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04215534119371426</v>
+        <v>0.0421553411937142</v>
       </c>
       <c r="C8" t="n">
         <v>0.999565513886953</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07796894984218625</v>
+        <v>0.0779689498421863</v>
       </c>
       <c r="C9" t="n">
         <v>0.9995355612121036</v>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0831172165082084</v>
+        <v>0.08311721650820808</v>
       </c>
       <c r="C11" t="n">
         <v>0.9938589972506088</v>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02950307763024243</v>
+        <v>0.02950307763024241</v>
       </c>
       <c r="C12" t="n">
         <v>0.9991323648205841</v>

--- a/predictions/global/GradientBoostingRegressor/Comorbilidades.xlsx
+++ b/predictions/global/GradientBoostingRegressor/Comorbilidades.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1647362719327806</v>
+        <v>0.1647362719327808</v>
       </c>
       <c r="C3" t="n">
         <v>0.9967802254222674</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.363870222580768</v>
+        <v>0.3638702225807682</v>
       </c>
       <c r="C5" t="n">
         <v>0.9928249773934597</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07514644587374561</v>
+        <v>0.07514644587374568</v>
       </c>
       <c r="C7" t="n">
         <v>0.9989614557710448</v>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0421553411937142</v>
+        <v>0.04215534119371404</v>
       </c>
       <c r="C8" t="n">
         <v>0.999565513886953</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0779689498421863</v>
+        <v>0.07796894984218578</v>
       </c>
       <c r="C9" t="n">
         <v>0.9995355612121036</v>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08311721650820808</v>
+        <v>0.0831172165082084</v>
       </c>
       <c r="C11" t="n">
         <v>0.9938589972506088</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03244348355771106</v>
+        <v>0.03244348355771107</v>
       </c>
       <c r="C14" t="n">
         <v>0.9995607352593556</v>

--- a/predictions/global/GradientBoostingRegressor/Comorbilidades.xlsx
+++ b/predictions/global/GradientBoostingRegressor/Comorbilidades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4108830721519875</v>
+        <v>0.4108830721519879</v>
       </c>
       <c r="C2" t="n">
         <v>0.9918184454734266</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0.5256692707344183</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -480,12 +488,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1647362719327808</v>
+        <v>0.1647362719327806</v>
       </c>
       <c r="C3" t="n">
         <v>0.9967802254222674</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>0.3215706312231009</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -498,12 +509,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2192987281846225</v>
+        <v>0.2192987281846222</v>
       </c>
       <c r="C4" t="n">
         <v>0.9957811801114811</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0.3777406617731504</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -516,12 +530,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3638702225807682</v>
+        <v>0.3638702225807681</v>
       </c>
       <c r="C5" t="n">
         <v>0.9928249773934597</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0.468209296615762</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -539,7 +556,10 @@
       <c r="C6" t="n">
         <v>0.9883803810587179</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>0.4321333824756292</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -552,12 +572,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07514644587374568</v>
+        <v>0.07514644587374582</v>
       </c>
       <c r="C7" t="n">
         <v>0.9989614557710448</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>0.2119198634755614</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -570,12 +593,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04215534119371404</v>
+        <v>0.04215534119371403</v>
       </c>
       <c r="C8" t="n">
         <v>0.999565513886953</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>0.1361288253571666</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -588,12 +614,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07796894984218578</v>
+        <v>0.07796894984218593</v>
       </c>
       <c r="C9" t="n">
         <v>0.9995355612121036</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>0.1911874935925038</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -611,7 +640,10 @@
       <c r="C10" t="n">
         <v>0.9991776159982717</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>0.1560271560555998</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -624,12 +656,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0831172165082084</v>
+        <v>0.08311721650820843</v>
       </c>
       <c r="C11" t="n">
         <v>0.9938589972506088</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>0.2072673588334912</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -642,12 +677,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02950307763024241</v>
+        <v>0.02950307763024243</v>
       </c>
       <c r="C12" t="n">
         <v>0.9991323648205841</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>0.1292627146720763</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -665,7 +703,10 @@
       <c r="C13" t="n">
         <v>0.9995404134334881</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>0.1526989685211046</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -678,12 +719,15 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03244348355771107</v>
+        <v>0.03244348355771106</v>
       </c>
       <c r="C14" t="n">
         <v>0.9995607352593556</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>0.1401297014068613</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>global</t>
         </is>

--- a/predictions/global/GradientBoostingRegressor/Comorbilidades.xlsx
+++ b/predictions/global/GradientBoostingRegressor/Comorbilidades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -480,6 +485,20 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1647362719327806</v>
+        <v>0.1647362719327808</v>
       </c>
       <c r="C3" t="n">
         <v>0.9967802254222674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3215706312231009</v>
+        <v>0.3215706312231011</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -509,17 +542,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2192987281846222</v>
+        <v>0.2192987281846225</v>
       </c>
       <c r="C4" t="n">
         <v>0.9957811801114811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3777406617731504</v>
+        <v>0.3777406617731509</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -530,17 +577,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3638702225807681</v>
+        <v>0.3638702225807678</v>
       </c>
       <c r="C5" t="n">
         <v>0.9928249773934597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.468209296615762</v>
+        <v>0.4682092966157618</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -564,6 +625,20 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -572,17 +647,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07514644587374582</v>
+        <v>0.07514644587374564</v>
       </c>
       <c r="C7" t="n">
         <v>0.9989614557710448</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2119198634755614</v>
+        <v>0.211919863475561</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -593,17 +682,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04215534119371403</v>
+        <v>0.04215534119371416</v>
       </c>
       <c r="C8" t="n">
         <v>0.999565513886953</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1361288253571666</v>
+        <v>0.136128825357167</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -614,17 +717,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07796894984218593</v>
+        <v>0.07796894984218639</v>
       </c>
       <c r="C9" t="n">
         <v>0.9995355612121036</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1911874935925038</v>
+        <v>0.1911874935925048</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -648,6 +765,20 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -656,17 +787,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08311721650820843</v>
+        <v>0.0831172165082084</v>
       </c>
       <c r="C11" t="n">
         <v>0.9938589972506088</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2072673588334912</v>
+        <v>0.2072673588334908</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -690,6 +835,20 @@
           <t>global</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -698,17 +857,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04845175044351522</v>
+        <v>0.0484517504435152</v>
       </c>
       <c r="C13" t="n">
         <v>0.9995404134334881</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1526989685211046</v>
+        <v>0.1526989685211048</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -730,6 +903,20 @@
       <c r="E14" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/global/GradientBoostingRegressor/Comorbilidades.xlsx
+++ b/predictions/global/GradientBoostingRegressor/Comorbilidades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4108830721519879</v>
+        <v>0.4108830721519877</v>
       </c>
       <c r="C2" t="n">
         <v>0.9918184454734266</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5256692707344183</v>
+        <v>0.5256692707344185</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -498,6 +508,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="3">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1647362719327808</v>
+        <v>0.1647362719327807</v>
       </c>
       <c r="C3" t="n">
         <v>0.9967802254222674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3215706312231011</v>
+        <v>0.321570631223101</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -533,6 +549,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="4">
@@ -569,6 +591,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -577,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3638702225807678</v>
+        <v>0.3638702225807681</v>
       </c>
       <c r="C5" t="n">
         <v>0.9928249773934597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4682092966157618</v>
+        <v>0.468209296615762</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -603,6 +631,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="6">
@@ -639,6 +673,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -647,13 +687,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07514644587374564</v>
+        <v>0.07514644587374561</v>
       </c>
       <c r="C7" t="n">
         <v>0.9989614557710448</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211919863475561</v>
+        <v>0.2119198634755611</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -673,6 +713,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="8">
@@ -709,6 +755,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -717,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07796894984218639</v>
+        <v>0.0779689498421858</v>
       </c>
       <c r="C9" t="n">
         <v>0.9995355612121036</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1911874935925048</v>
+        <v>0.1911874935925036</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -743,6 +795,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="10">
@@ -779,6 +837,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -814,6 +878,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -822,13 +892,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02950307763024243</v>
+        <v>0.02950307763024238</v>
       </c>
       <c r="C12" t="n">
         <v>0.9991323648205841</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1292627146720763</v>
+        <v>0.1292627146720762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -848,6 +918,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="13">
@@ -857,13 +933,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0484517504435152</v>
+        <v>0.04845175044351522</v>
       </c>
       <c r="C13" t="n">
         <v>0.9995404134334881</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1526989685211048</v>
+        <v>0.1526989685211047</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -883,6 +959,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="14">
@@ -918,6 +1000,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/global/GradientBoostingRegressor/Comorbilidades.xlsx
+++ b/predictions/global/GradientBoostingRegressor/Comorbilidades.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4108830721519877</v>
+        <v>0.4108830721519879</v>
       </c>
       <c r="C2" t="n">
         <v>0.9918184454734266</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5256692707344185</v>
+        <v>0.5256692707344183</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H2" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1647362719327807</v>
+        <v>0.1647362719327808</v>
       </c>
       <c r="C3" t="n">
         <v>0.9967802254222674</v>
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H3" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -588,14 +588,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H4" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3638702225807681</v>
+        <v>0.363870222580768</v>
       </c>
       <c r="C5" t="n">
         <v>0.9928249773934597</v>
@@ -629,14 +629,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H5" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -670,14 +670,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H6" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -711,14 +711,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H7" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04215534119371416</v>
+        <v>0.0421553411937144</v>
       </c>
       <c r="C8" t="n">
         <v>0.999565513886953</v>
       </c>
       <c r="D8" t="n">
-        <v>0.136128825357167</v>
+        <v>0.1361288253571675</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -752,14 +752,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H8" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0779689498421858</v>
+        <v>0.07796894984218622</v>
       </c>
       <c r="C9" t="n">
         <v>0.9995355612121036</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1911874935925036</v>
+        <v>0.1911874935925042</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -793,14 +793,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H9" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -834,14 +834,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H10" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -851,13 +851,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0831172165082084</v>
+        <v>0.08311721650820843</v>
       </c>
       <c r="C11" t="n">
         <v>0.9938589972506088</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2072673588334908</v>
+        <v>0.2072673588334912</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -875,14 +875,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H11" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02950307763024238</v>
+        <v>0.02950307763024243</v>
       </c>
       <c r="C12" t="n">
         <v>0.9991323648205841</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1292627146720762</v>
+        <v>0.1292627146720763</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H12" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -939,7 +939,7 @@
         <v>0.9995404134334881</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1526989685211047</v>
+        <v>0.1526989685211046</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -957,14 +957,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H13" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03244348355771106</v>
+        <v>0.03244348355771107</v>
       </c>
       <c r="C14" t="n">
         <v>0.9995607352593556</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1401297014068613</v>
+        <v>0.1401297014068614</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -998,14 +998,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H14" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/global/GradientBoostingRegressor/Comorbilidades.xlsx
+++ b/predictions/global/GradientBoostingRegressor/Comorbilidades.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4108830721519879</v>
+        <v>0.4108830721519875</v>
       </c>
       <c r="C2" t="n">
         <v>0.9918184454734266</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5256692707344183</v>
+        <v>0.525669270734418</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1647362719327808</v>
+        <v>0.1647362719327807</v>
       </c>
       <c r="C3" t="n">
         <v>0.9967802254222674</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2192987281846225</v>
+        <v>0.2192987281846223</v>
       </c>
       <c r="C4" t="n">
         <v>0.9957811801114811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3777406617731509</v>
+        <v>0.3777406617731507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.363870222580768</v>
+        <v>0.3638702225807679</v>
       </c>
       <c r="C5" t="n">
         <v>0.9928249773934597</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07514644587374561</v>
+        <v>0.07514644587374564</v>
       </c>
       <c r="C7" t="n">
         <v>0.9989614557710448</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2119198634755611</v>
+        <v>0.211919863475561</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0421553411937144</v>
+        <v>0.04215534119371416</v>
       </c>
       <c r="C8" t="n">
         <v>0.999565513886953</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1361288253571675</v>
+        <v>0.1361288253571671</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07796894984218622</v>
+        <v>0.07796894984218636</v>
       </c>
       <c r="C9" t="n">
         <v>0.9995355612121036</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1911874935925042</v>
+        <v>0.1911874935925046</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -961,10 +961,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
   </sheetData>
